--- a/Documents/DiagrameDeClasses/DIA_Classes.xlsx
+++ b/Documents/DiagrameDeClasses/DIA_Classes.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e1596124\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proget2017v2\Proget2v2\DiogrammaDeClasses\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17115" windowHeight="4335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11895"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -249,60 +249,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1066799</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>323852</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Triangle isocèle 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="2243136" y="2224090"/>
-          <a:ext cx="314325" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-CA" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -412,15 +358,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>157165</xdr:rowOff>
+      <xdr:rowOff>138115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -429,7 +375,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2505074" y="2328865"/>
+          <a:off x="2314574" y="2309815"/>
           <a:ext cx="1000126" cy="4760"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -543,6 +489,60 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1128716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>290516</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Triangle isocèle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3233736" y="2190754"/>
+          <a:ext cx="314325" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -863,7 +863,7 @@
   <dimension ref="C2:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
